--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/20/seed5/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.94</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.0275</v>
+        <v>-7.173899999999998</v>
       </c>
       <c r="E2" t="n">
         <v>17.25</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.644700000000003</v>
+        <v>6.676900000000002</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.901499999999996</v>
+        <v>-7.174399999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.711499999999999</v>
+        <v>8.838599999999998</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.2948</v>
+        <v>16.20479999999999</v>
       </c>
     </row>
     <row r="9">
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.311399999999995</v>
+        <v>-7.387599999999996</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.72410000000001</v>
+        <v>-21.7512</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.47449999999999</v>
+        <v>16.5384</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5768</v>
+        <v>-21.5462</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.904399999999993</v>
+        <v>7.114799999999998</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,12 +678,12 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.99259999999999</v>
+        <v>16.8911</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-22.1063</v>
+        <v>-21.45649999999999</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -692,10 +692,10 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.160799999999993</v>
+        <v>-7.739099999999996</v>
       </c>
       <c r="E15" t="n">
-        <v>16.6468</v>
+        <v>16.2677</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.66620000000002</v>
+        <v>16.60830000000001</v>
       </c>
     </row>
     <row r="18">
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.333699999999999</v>
+        <v>-7.500599999999999</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.167399999999999</v>
+        <v>-7.382400000000001</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.808400000000001</v>
+        <v>-7.785900000000001</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.261600000000007</v>
+        <v>4.176400000000005</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.61350000000001</v>
+        <v>15.3925</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.7729</v>
+        <v>-21.72789999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.089999999999996</v>
+        <v>-9.106199999999994</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.93020000000001</v>
+        <v>-21.9508</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.176499999999997</v>
+        <v>-8.107500000000002</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.469600000000002</v>
+        <v>-7.276700000000003</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.5896</v>
+        <v>-21.3926</v>
       </c>
       <c r="B31" t="n">
-        <v>4.319300000000005</v>
+        <v>4.604300000000006</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.43760000000002</v>
+        <v>-21.4073</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.176199999999989</v>
+        <v>-9.170699999999988</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.887099999999998</v>
+        <v>9.077800000000003</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.2317</v>
+        <v>-20.09319999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.6439</v>
+        <v>15.7038</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.510700000000003</v>
+        <v>8.411000000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.6631</v>
+        <v>-19.39209999999999</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.063700000000001</v>
+        <v>9.119900000000005</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.0848</v>
+        <v>8.993499999999996</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.7826</v>
+        <v>16.5935</v>
       </c>
     </row>
     <row r="43">
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.186700000000002</v>
+        <v>-7.138100000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.304999999999996</v>
+        <v>6.270199999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.59600000000001</v>
+        <v>-21.42489999999999</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.550400000000001</v>
+        <v>-7.4624</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.574500000000001</v>
+        <v>5.409400000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6166</v>
+        <v>-21.7872</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.53130000000001</v>
+        <v>-22.42580000000002</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.1274</v>
+        <v>-22.135</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.700199999999997</v>
+        <v>4.825999999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.968399999999998</v>
+        <v>-8.241399999999997</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.408299999999999</v>
+        <v>-8.4673</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.38019999999999</v>
+        <v>17.383</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.47109999999997</v>
+        <v>-21.48989999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1596,12 +1596,12 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.92900000000002</v>
+        <v>17.01540000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.73189999999997</v>
+        <v>-21.72999999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.95109999999999</v>
+        <v>-22.03670000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.1085</v>
+        <v>-20.0701</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1746,7 +1746,7 @@
         <v>-9.57</v>
       </c>
       <c r="D77" t="n">
-        <v>-5.494499999999999</v>
+        <v>-5.4774</v>
       </c>
       <c r="E77" t="n">
         <v>17.96</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.373800000000001</v>
+        <v>-7.570600000000002</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.10540000000002</v>
+        <v>18.06170000000003</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.059899999999999</v>
+        <v>6.3044</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.60139999999999</v>
+        <v>-21.48329999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.7028</v>
+        <v>5.8925</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.657799999999995</v>
+        <v>-8.476799999999999</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.03700000000001</v>
+        <v>-22.03440000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.389899999999996</v>
+        <v>-6.327499999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>18.62290000000002</v>
+        <v>18.84520000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.43840000000001</v>
+        <v>-21.46660000000001</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.349199999999997</v>
+        <v>-6.273599999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.318999999999999</v>
+        <v>-6.180799999999998</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.3201</v>
+        <v>-21.3904</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.514300000000005</v>
+        <v>-7.446400000000007</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.48429999999999</v>
+        <v>-20.3548</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.9956</v>
+        <v>5.806199999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.267000000000001</v>
+        <v>8.215800000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.003800000000005</v>
+        <v>-7.970700000000003</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
